--- a/data/trans_bre/P23_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_6_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>24,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>107,71%</t>
+          <t>188,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>229,57%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36,7%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1823,09%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 9,05</t>
+          <t>-0,57; 22,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 12,02</t>
+          <t>-0,64; 18,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 7,37</t>
+          <t>-8,42; 15,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,87; 334,46</t>
+          <t>11,15; 39,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 619,75</t>
+          <t>-36,53; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,48; 193,76</t>
+          <t>-68,77; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-68,01; 584,67</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>67,69%</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>124,85%</t>
+          <t>-27,94%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>49,92%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-56,03%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 8,24</t>
+          <t>-2,54; 7,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 6,25</t>
+          <t>-16,73; 4,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,37</t>
+          <t>-3,79; 6,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 232,16</t>
+          <t>-24,75; -0,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 226,92</t>
+          <t>-44,85; 446,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 510,38</t>
+          <t>-83,77; 106,69</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-60,63; 411,34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-90,68; 2,61</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-25,18%</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-14,42%</t>
+          <t>-14,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>192,21%</t>
+          <t>-55,97%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>94,73%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,29</t>
+          <t>-4,28; 3,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 2,73</t>
+          <t>-15,83; 2,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 6,99</t>
+          <t>-2,19; 4,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-75,93; 199,25</t>
+          <t>-5,01; 5,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-88,22; 265,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 1082,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-86,16; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-62,69; 199,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 4,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 119,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 137,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,42; 269,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>56,2%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-20,54%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>50,1%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 5,26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-10,15; 2,76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,84; 5,03</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-10,15; 5,12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-19,74; 229,98</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-70,3; 72,47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-37,41; 215,77</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-61,77; 88,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_6_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,72</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,54</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>24,25</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>188,48%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>229,57%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>36,7%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1823,09%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.582738870292193</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.715999326676492</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5862207556909569</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>24.36391989627529</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.927562788148625</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.663113265284669</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.06139035950867879</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>19.17510045878558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; 22,75</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 18,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,42; 15,88</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>11,15; 39,17</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-36,53; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-68,77; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-68,01; 584,67</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.8350356941241126</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.03020400662902232</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.97633240158371</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>11.3328328398138</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3999104361890509</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6381240051182533</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8131255100695478</v>
+      </c>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>22.19048822990534</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21.08002577716097</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.63482583148337</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>40.79111926143054</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>17.19677932213369</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>3.949902618020865</v>
+      </c>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-8,03</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>56,63%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-27,94%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>49,92%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-56,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 7,96</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,73; 4,02</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 6,6</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-24,75; -0,22</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-44,85; 446,65</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-83,77; 106,69</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-60,63; 411,34</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-90,68; 2,61</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.909522151611747</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.652486007896656</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.745498027477947</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-7.755369384014135</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.98104489932006</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1792646411913267</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.7338931612364602</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.5544604936894735</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,01</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-14,68%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-55,97%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>94,73%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>11,73%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.6841439728007527</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.02249416486111</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.998540882654782</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-24.4199462003221</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2757200945140961</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.7744708755492802</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5579287919578106</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.9111402404103363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 3,1</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,83; 2,05</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 4,49</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 5,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-86,16; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-62,69; 199,47</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.99558287921929</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.318432182598227</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.272903752482645</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-0.1417498665820425</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>7.549489751073279</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.437324415192068</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.775378383157211</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.04450255212812806</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +821,201 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.237375872572777</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.15888862486243</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.886168498118225</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.5098738400191621</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.09910331465514421</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5656834740090808</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.247481870985748</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.09047646464210642</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.310389863424859</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.63086747751792</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.644649707068548</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.334622908989772</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.8504994125498107</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6716637154797204</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.885421184649905</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.178703031669094</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.303585059778544</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.205676720699805</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.79930881004627</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>56,2%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-20,54%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>50,1%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 5,26</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 2,76</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 5,03</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-10,15; 5,12</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-19,74; 229,98</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-70,3; 72,47</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-37,41; 215,77</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-61,77; 88,43</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.120306679018032</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.8822657002401812</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.103819226707136</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4266864440147469</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.888826244857823</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.122930239291982</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5618359463124225</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.04701735625025049</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.2632750164612306</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.190617159586893</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.859090457577612</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-9.842915351467099</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>7.924084173100939e-05</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6579123791155267</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3640484498033015</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6148129737681783</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.928555720816671</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.340523382091722</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.321358398475755</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.503814238405582</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>3.040203256047119</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.8804378495805988</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.348272298573337</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9406028315098931</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
